--- a/assets/stages/maps/MapEditor/Room15.xlsx
+++ b/assets/stages/maps/MapEditor/Room15.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EventArea" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DramaArea" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SignArea" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="backgroundObjects" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
@@ -2914,4 +2915,22 @@
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/assets/stages/maps/MapEditor/Room15.xlsx
+++ b/assets/stages/maps/MapEditor/Room15.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Files\2024-2025-1\Web\portal_2d\assets\stages\maps\MapEditor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87CFC415-9961-47EB-9D42-2C39CE77AFD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FF6AB73-B612-46B0-8E20-0CB9962C855C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="23040" windowHeight="14100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2268" yWindow="2268" windowWidth="23040" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BlocksandBackground" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
   <dimension ref="A1:AF18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AE8" sqref="AE8"/>
+      <selection activeCell="Z6" sqref="Z6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -438,10 +438,10 @@
         <v>1</v>
       </c>
       <c r="J1" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K1" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L1" s="1">
         <v>1</v>
@@ -477,16 +477,16 @@
         <v>1</v>
       </c>
       <c r="W1" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X1" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y1" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z1" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA1" s="1">
         <v>1</v>
@@ -536,10 +536,10 @@
         <v>1</v>
       </c>
       <c r="J2" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K2" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -575,16 +575,16 @@
         <v>1</v>
       </c>
       <c r="W2" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X2" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y2" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z2" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA2" s="1">
         <v>1</v>
@@ -634,10 +634,10 @@
         <v>1</v>
       </c>
       <c r="J3" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K3" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L3" s="1">
         <v>1</v>
@@ -652,52 +652,52 @@
         <v>2</v>
       </c>
       <c r="P3" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q3" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R3" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S3" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T3" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U3" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V3" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W3" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X3" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y3" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z3" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA3" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB3" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC3" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD3" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE3" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AF3" s="1">
         <v>1</v>
@@ -795,7 +795,7 @@
         <v>-1</v>
       </c>
       <c r="AE4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AF4" s="1">
         <v>1</v>
@@ -893,7 +893,7 @@
         <v>-1</v>
       </c>
       <c r="AE5" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AF5" s="1">
         <v>1</v>
@@ -991,7 +991,7 @@
         <v>-1</v>
       </c>
       <c r="AE6" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AF6" s="1">
         <v>1</v>
@@ -1516,10 +1516,10 @@
         <v>-1</v>
       </c>
       <c r="J12" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K12" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L12" s="1">
         <v>-1</v>
@@ -1558,10 +1558,10 @@
         <v>-1</v>
       </c>
       <c r="X12" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y12" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z12" s="1">
         <v>-1</v>
@@ -2183,7 +2183,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J3 K1:K4 B2:J4 C3:AF4 C3:U5 C4:AD11 B5:K5 V5:AF5 B5:B16 S6:AF7 G6:AE9 AA8:AF8 Q9:AF9 AE9:AE15 G10:AF11 AF11:AF14 C12:AF12 Z12:AF14 G13:AF13 C13:AD16 G15:AE18 C17:D17 AE7:AF8">
+  <conditionalFormatting sqref="J1:J3 K1:K4 B2:J4 C4:AD11 B5:K5 V5:AF5 B5:B16 S6:AF7 G6:AE9 AE7:AF8 AA8:AF8 Q9:AF9 AE9:AE15 G10:AF11 AF11:AF14 G13:AF13 C13:AD16 G15:AE18 C17:D17 J2:K3 C3:U5 C12:AF12 Z12:AF14 W1:W2 X1:AA3 C3:AF4 AE4:AE6">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>-1</formula>
     </cfRule>
@@ -2198,7 +2198,7 @@
   <dimension ref="A1:AF18"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AP14" sqref="AP14"/>
+      <selection activeCell="X1" sqref="X1:Y1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2216,12 +2216,6 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
-      <c r="J1" s="3">
-        <v>3</v>
-      </c>
-      <c r="K1" s="3">
-        <v>3</v>
-      </c>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
@@ -2234,10 +2228,12 @@
       <c r="U1" s="2"/>
       <c r="V1" s="2"/>
       <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
+      <c r="X1" s="3">
+        <v>3</v>
+      </c>
+      <c r="Y1" s="3">
+        <v>3</v>
+      </c>
       <c r="AB1" s="2"/>
       <c r="AC1" s="2"/>
       <c r="AD1" s="2"/>

--- a/assets/stages/maps/MapEditor/Room15.xlsx
+++ b/assets/stages/maps/MapEditor/Room15.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Files\2024-2025-1\Web\portal_2d\assets\stages\maps\MapEditor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FF6AB73-B612-46B0-8E20-0CB9962C855C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECCA21F6-F157-4714-81A9-29EDC956D3C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2268" yWindow="2268" windowWidth="23040" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="12196" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BlocksandBackground" sheetId="1" r:id="rId1"/>
@@ -400,16 +400,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="Z6" sqref="Z6"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7:H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="3.19921875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="13" max="13" width="3.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.53125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -507,7 +507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -605,7 +605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -703,7 +703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -801,7 +801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -899,7 +899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -997,7 +997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -1095,7 +1095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -1193,7 +1193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -1291,12 +1291,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>1</v>
       </c>
       <c r="B10" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10" s="1">
         <v>-1</v>
@@ -1389,12 +1389,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>1</v>
       </c>
       <c r="B11" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11" s="1">
         <v>-1</v>
@@ -1487,7 +1487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>1</v>
       </c>
@@ -1585,7 +1585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>1</v>
       </c>
@@ -1683,7 +1683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>1</v>
       </c>
@@ -1781,7 +1781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>1</v>
       </c>
@@ -1879,7 +1879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>1</v>
       </c>
@@ -1977,7 +1977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>1</v>
       </c>
@@ -2075,7 +2075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>1</v>
       </c>
@@ -2183,7 +2183,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J3 K1:K4 B2:J4 C4:AD11 B5:K5 V5:AF5 B5:B16 S6:AF7 G6:AE9 AE7:AF8 AA8:AF8 Q9:AF9 AE9:AE15 G10:AF11 AF11:AF14 G13:AF13 C13:AD16 G15:AE18 C17:D17 J2:K3 C3:U5 C12:AF12 Z12:AF14 W1:W2 X1:AA3 C3:AF4 AE4:AE6">
+  <conditionalFormatting sqref="W1:W2 J1:J3 X1:AA3 K1:K4 J2:K3 B2:J4 C3:AF4 C3:U5 AE4:AE6 C4:AD11 B5:K5 V5:AF5 S6:AF7 G6:AE9 AE7:AF8 AA8:AF8 Q9:AF9 AE9:AE15 G10:AF11 AF11:AF14 C12:AF12 Z12:AF14 G13:AF13 C13:AD16 G15:AE18 C17:D17 B5:B16">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>-1</formula>
     </cfRule>
@@ -2201,12 +2201,12 @@
       <selection activeCell="X1" sqref="X1:Y1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="3.19921875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="13" max="13" width="3.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.53125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2240,7 +2240,7 @@
       <c r="AE1" s="2"/>
       <c r="AF1" s="2"/>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -2273,7 +2273,7 @@
       <c r="AE2" s="1"/>
       <c r="AF2" s="2"/>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A3" s="2"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2307,7 +2307,7 @@
       <c r="AE3" s="1"/>
       <c r="AF3" s="2"/>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A4" s="2"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -2341,7 +2341,7 @@
       <c r="AE4" s="1"/>
       <c r="AF4" s="2"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A5" s="2"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -2375,7 +2375,7 @@
       <c r="AE5" s="1"/>
       <c r="AF5" s="2"/>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A6" s="2"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -2409,7 +2409,7 @@
       <c r="AE6" s="1"/>
       <c r="AF6" s="2"/>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A7" s="2"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -2443,7 +2443,7 @@
       <c r="AE7" s="1"/>
       <c r="AF7" s="2"/>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A8" s="2"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -2477,7 +2477,7 @@
       <c r="AE8" s="1"/>
       <c r="AF8" s="2"/>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -2511,7 +2511,7 @@
       <c r="AE9" s="1"/>
       <c r="AF9" s="2"/>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A10" s="2"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -2545,7 +2545,7 @@
       <c r="AE10" s="1"/>
       <c r="AF10" s="2"/>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A11" s="2"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -2579,7 +2579,7 @@
       <c r="AE11" s="1"/>
       <c r="AF11" s="2"/>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A12" s="2"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -2613,7 +2613,7 @@
       <c r="AE12" s="1"/>
       <c r="AF12" s="2"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A13" s="2"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -2647,7 +2647,7 @@
       <c r="AE13" s="1"/>
       <c r="AF13" s="2"/>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A14" s="2"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -2681,7 +2681,7 @@
       <c r="AE14" s="1"/>
       <c r="AF14" s="2"/>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A15" s="2"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -2715,7 +2715,7 @@
       <c r="AE15" s="1"/>
       <c r="AF15" s="2"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A16" s="2"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -2749,7 +2749,7 @@
       <c r="AE16" s="1"/>
       <c r="AF16" s="2"/>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A17" s="2"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -2783,7 +2783,7 @@
       <c r="AE17" s="1"/>
       <c r="AF17" s="2"/>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -2830,7 +2830,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2843,7 +2843,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2852,12 +2852,71 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="G7:J10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="7" spans="7:10" x14ac:dyDescent="0.4">
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>5</v>
+      </c>
+      <c r="J7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="7:10" x14ac:dyDescent="0.4">
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>5</v>
+      </c>
+      <c r="J8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="7:10" x14ac:dyDescent="0.4">
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>5</v>
+      </c>
+      <c r="J9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="7:10" x14ac:dyDescent="0.4">
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>5</v>
+      </c>
+      <c r="J10">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/stages/maps/MapEditor/Room15.xlsx
+++ b/assets/stages/maps/MapEditor/Room15.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Files\2024-2025-1\Web\portal_2d\assets\stages\maps\MapEditor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECCA21F6-F157-4714-81A9-29EDC956D3C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89DAEFAC-D29A-43B4-8AAB-D0BB6F66293F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="12196" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -401,7 +401,7 @@
   <dimension ref="A1:AF18"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7:H10"/>
+      <selection activeCell="AD14" sqref="AC13:AD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.19921875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2183,7 +2183,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W1:W2 J1:J3 X1:AA3 K1:K4 J2:K3 B2:J4 C3:AF4 C3:U5 AE4:AE6 C4:AD11 B5:K5 V5:AF5 S6:AF7 G6:AE9 AE7:AF8 AA8:AF8 Q9:AF9 AE9:AE15 G10:AF11 AF11:AF14 C12:AF12 Z12:AF14 G13:AF13 C13:AD16 G15:AE18 C17:D17 B5:B16">
+  <conditionalFormatting sqref="W1:W2 J1:J3 X1:AA3 K1:K4 J2:K3 B2:J4 C3:AF4 C3:U5 AE4:AE6 C4:AD11 B5:K5 V5:AF5 B5:B16 S6:AF7 G6:AE9 AE7:AF8 AA8:AF8 Q9:AF9 AE9:AE15 G10:AF11 AF11:AF14 C12:AF12 Z12:AF14 G13:AF13 C13:AD16 G15:AE18 C17:D17">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>-1</formula>
     </cfRule>
@@ -2198,7 +2198,7 @@
   <dimension ref="A1:AF18"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="X1" sqref="X1:Y1"/>
+      <selection activeCell="X5" sqref="X5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.19921875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2826,12 +2826,31 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="AC13:AD14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AB15" sqref="AB15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <sheetData>
+    <row r="13" spans="29:30" x14ac:dyDescent="0.4">
+      <c r="AC13">
+        <v>1</v>
+      </c>
+      <c r="AD13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="29:30" x14ac:dyDescent="0.4">
+      <c r="AC14">
+        <v>1</v>
+      </c>
+      <c r="AD14">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2852,15 +2871,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="G7:J10"/>
+  <dimension ref="G7:AD14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="AC14" sqref="AC14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="7" spans="7:10" x14ac:dyDescent="0.4">
+    <row r="7" spans="7:30" x14ac:dyDescent="0.4">
       <c r="G7">
         <v>1</v>
       </c>
@@ -2874,7 +2893,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="7:10" x14ac:dyDescent="0.4">
+    <row r="8" spans="7:30" x14ac:dyDescent="0.4">
       <c r="G8">
         <v>1</v>
       </c>
@@ -2888,7 +2907,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="7:10" x14ac:dyDescent="0.4">
+    <row r="9" spans="7:30" x14ac:dyDescent="0.4">
       <c r="G9">
         <v>1</v>
       </c>
@@ -2902,7 +2921,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="7:10" x14ac:dyDescent="0.4">
+    <row r="10" spans="7:30" x14ac:dyDescent="0.4">
       <c r="G10">
         <v>1</v>
       </c>
@@ -2914,6 +2933,22 @@
       </c>
       <c r="J10">
         <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="7:30" x14ac:dyDescent="0.4">
+      <c r="AC13">
+        <v>19</v>
+      </c>
+      <c r="AD13">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="7:30" x14ac:dyDescent="0.4">
+      <c r="AC14">
+        <v>19</v>
+      </c>
+      <c r="AD14">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
